--- a/analysis/era2.xlsx
+++ b/analysis/era2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avab/School/Sophomore Year/HNRS-398/HNRS-398-R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFB7699-BA9D-F240-B33F-ADEC1FC81FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76AB4CC-16D6-2943-BEED-927D60CFFD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C27A4DC-9B37-9A4A-AFA8-902BDC96D82A}"/>
+    <workbookView xWindow="8460" yWindow="1100" windowWidth="28800" windowHeight="16340" xr2:uid="{8C27A4DC-9B37-9A4A-AFA8-902BDC96D82A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>state</t>
   </si>
@@ -260,14 +260,17 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>U.S.</t>
+    <t>info_employment_2010</t>
+  </si>
+  <si>
+    <t>info_employment_2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +289,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF111827"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -309,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,6 +330,7 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,15 +665,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D7C319-8665-B346-866A-F4A8F9FE337D}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="24" max="25" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,8 +746,14 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -804,8 +823,14 @@
       <c r="W2" s="3">
         <v>4909177</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="5">
+        <v>36217</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>33459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -875,8 +900,14 @@
       <c r="W3" s="3">
         <v>739120</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="5">
+        <v>6627</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -946,8 +977,14 @@
       <c r="W4" s="3">
         <v>6705607</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" s="5">
+        <v>51868</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>50744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1017,8 +1054,14 @@
       <c r="W5" s="3">
         <v>2970210</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" s="5">
+        <v>22767</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>23235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1088,8 +1131,14 @@
       <c r="W6" s="3">
         <v>38966939</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6" s="5">
+        <v>487172</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>642836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1159,8 +1208,14 @@
       <c r="W7" s="3">
         <v>5441452</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="5">
+        <v>78683</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>81722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1230,8 +1285,14 @@
       <c r="W8" s="3">
         <v>3611891</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="5">
+        <v>35389</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>41891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1301,8 +1362,14 @@
       <c r="W9" s="3">
         <v>944716</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="5">
+        <v>6641</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1370,8 +1437,14 @@
       <c r="W10" s="3">
         <v>665135</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="5">
+        <v>20382</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>25035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1441,8 +1514,14 @@
       <c r="W11" s="3">
         <v>20140379</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="5">
+        <v>152768</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>169503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1512,8 +1591,14 @@
       <c r="W12" s="3">
         <v>10191912</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="5">
+        <v>117700</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>122514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1583,8 +1668,14 @@
       <c r="W13" s="3">
         <v>1446452</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="5">
+        <v>8879</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>8293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1654,8 +1745,14 @@
       <c r="W14" s="3">
         <v>1663458</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="5">
+        <v>13319</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>12262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1725,8 +1822,14 @@
       <c r="W15" s="3">
         <v>12963110</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="5">
+        <v>122391</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>120642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1796,8 +1899,14 @@
       <c r="W16" s="3">
         <v>6628925</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="5">
+        <v>43401</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1867,8 +1976,14 @@
       <c r="W17" s="3">
         <v>3136310</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="5">
+        <v>32985</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>30622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1938,8 +2053,14 @@
       <c r="W18" s="3">
         <v>2922703</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="5">
+        <v>40031</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>35366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2009,8 +2130,14 @@
       <c r="W19" s="3">
         <v>4443778</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="5">
+        <v>31805</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>36255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2080,8 +2207,14 @@
       <c r="W20" s="3">
         <v>4670550</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="5">
+        <v>24141</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>26296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2151,8 +2284,14 @@
       <c r="W21" s="3">
         <v>1335768</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="5">
+        <v>10851</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2222,8 +2361,14 @@
       <c r="W22" s="3">
         <v>6050280</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="5">
+        <v>54660</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>50741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2293,8 +2438,14 @@
       <c r="W23" s="3">
         <v>6866661</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="5">
+        <v>101852</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>115280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2364,8 +2515,14 @@
       <c r="W24" s="3">
         <v>9987448</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="5">
+        <v>69908</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>69433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2435,8 +2592,14 @@
       <c r="W25" s="3">
         <v>5510593</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="5">
+        <v>61524</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>58126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2506,8 +2669,14 @@
       <c r="W26" s="3">
         <v>2985000</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="5">
+        <v>12963</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>13795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -2577,8 +2746,14 @@
       <c r="W27" s="3">
         <v>6077056</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="5">
+        <v>60475</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>58049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2648,8 +2823,14 @@
       <c r="W28" s="3">
         <v>1034544</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="5">
+        <v>9185</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>8707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -2719,8 +2900,14 @@
       <c r="W29" s="3">
         <v>1904766</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="5">
+        <v>20734</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>20890</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -2790,8 +2977,14 @@
       <c r="W30" s="3">
         <v>2855986</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="5">
+        <v>15784</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>16756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -2861,8 +3054,14 @@
       <c r="W31" s="3">
         <v>1343764</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="5">
+        <v>12724</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>14070</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -2932,8 +3131,14 @@
       <c r="W32" s="3">
         <v>9079218</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="5">
+        <v>98415</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>87125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
@@ -3003,8 +3208,14 @@
       <c r="W33" s="3">
         <v>2096056</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="5">
+        <v>13068</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>11656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
@@ -3074,8 +3285,14 @@
       <c r="W34" s="3">
         <v>20087023</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="5">
+        <v>269358</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>287247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
@@ -3145,8 +3362,14 @@
       <c r="W35" s="3">
         <v>9962464</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="5">
+        <v>74443</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>80372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
@@ -3216,8 +3439,14 @@
       <c r="W36" s="3">
         <v>762814</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" s="5">
+        <v>7289</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -3287,8 +3516,14 @@
       <c r="W37" s="3">
         <v>11674622</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37" s="5">
+        <v>90221</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>86983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3358,8 +3593,14 @@
       <c r="W38" s="3">
         <v>3900900</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="5">
+        <v>29699</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>30374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -3429,8 +3670,14 @@
       <c r="W39" s="3">
         <v>4018453</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="5">
+        <v>33896</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>36792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3747,14 @@
       <c r="W40" s="3">
         <v>12899169</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="5">
+        <v>116271</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>113822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3571,8 +3824,14 @@
       <c r="W41" s="3">
         <v>1077555</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="5">
+        <v>7183</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
@@ -3642,8 +3901,14 @@
       <c r="W42" s="3">
         <v>4850136</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="5">
+        <v>32532</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>33880</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -3713,8 +3978,14 @@
       <c r="W43" s="3">
         <v>852029</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="5">
+        <v>7544</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>6967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -3784,8 +4055,14 @@
       <c r="W44" s="3">
         <v>6613679</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="5">
+        <v>47452</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>47967</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -3855,8 +4132,14 @@
       <c r="W45" s="3">
         <v>27394564</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="5">
+        <v>228088</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>244628</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
@@ -3926,8 +4209,14 @@
       <c r="W46" s="3">
         <v>3000449</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="5">
+        <v>33256</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
@@ -3997,8 +4286,14 @@
       <c r="W47" s="3">
         <v>635912</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="5">
+        <v>5591</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
@@ -4068,8 +4363,14 @@
       <c r="W48" s="3">
         <v>8390494</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="5">
+        <v>93436</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>97378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
@@ -4139,8 +4440,14 @@
       <c r="W49" s="3">
         <v>7181417</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="5">
+        <v>113738</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>127103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
@@ -4210,8 +4517,14 @@
       <c r="W50" s="3">
         <v>1846270</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="5">
+        <v>10498</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>10624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
@@ -4281,8 +4594,14 @@
       <c r="W51" s="3">
         <v>5794536</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="5">
+        <v>54251</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
@@ -4352,77 +4671,37 @@
       <c r="W52" s="3">
         <v>583671</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="4">
-        <v>21800000000</v>
-      </c>
-      <c r="C53" s="3">
-        <v>107792</v>
-      </c>
-      <c r="D53" s="3">
-        <v>440520</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1646533</v>
-      </c>
-      <c r="F53" s="3">
-        <v>-2400279</v>
-      </c>
-      <c r="G53" s="4">
-        <v>89100000000</v>
-      </c>
-      <c r="H53" s="3">
-        <v>-142511</v>
-      </c>
-      <c r="I53" s="4">
-        <v>111000000</v>
-      </c>
-      <c r="J53" s="3">
-        <v>15048971</v>
-      </c>
-      <c r="K53" s="3">
-        <v>48647.12</v>
-      </c>
-      <c r="L53" s="4">
-        <v>309000000</v>
-      </c>
-      <c r="M53" s="4">
-        <v>58800000000</v>
-      </c>
-      <c r="N53" s="3">
-        <v>140969</v>
-      </c>
-      <c r="O53" s="3">
-        <v>383683</v>
-      </c>
-      <c r="P53" s="3">
-        <v>1891525</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>3103607</v>
-      </c>
-      <c r="R53" s="4">
-        <v>91200000000</v>
-      </c>
-      <c r="S53" s="3">
-        <v>43044</v>
-      </c>
-      <c r="T53" s="4">
-        <v>123000000</v>
-      </c>
-      <c r="U53" s="3">
-        <v>18295019</v>
-      </c>
-      <c r="V53" s="3">
-        <v>56849.47</v>
-      </c>
-      <c r="W53" s="4">
-        <v>322000000</v>
-      </c>
+      <c r="X52" s="5">
+        <v>3938</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
